--- a/console/Networking/iaas-network/routerMixinsXlsx/components/routerTable_detailTab.xlsx
+++ b/console/Networking/iaas-network/routerMixinsXlsx/components/routerTable_detailTab.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GTCOM\JD\!!Workspace\1811-14_HB\console-EN_Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -768,18 +773,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Hosting VPC</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Type</t>
     </r>
   </si>
@@ -793,42 +786,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>‘Default Route Table’</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‘Customized Table’</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Name cannot be blank</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The name length cannot exceed 32 characters</t>
     </r>
   </si>
   <si>
@@ -894,13 +851,27 @@
   <si>
     <t>‘Begin to modify route table name’</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPC</t>
+  </si>
+  <si>
+    <t>‘Customized Route Table’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name cannot be null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The length of name cannot exceed 32 characters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -913,6 +884,20 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -936,14 +921,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1282,17 +1271,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C14" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.21875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="30.1796875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
-    <col min="3" max="3" width="61.77734375" customWidth="1"/>
+    <col min="2" max="2" width="39.36328125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +1292,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1311,10 +1300,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1325,7 +1314,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1336,7 +1325,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1347,7 +1336,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1355,10 +1344,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1369,7 +1358,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,7 +1369,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1391,7 +1380,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1399,10 +1388,10 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1413,7 +1402,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1424,7 +1413,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1435,7 +1424,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1443,10 +1432,10 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1454,10 +1443,10 @@
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1465,10 +1454,10 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1476,32 +1465,32 @@
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="C19" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1509,10 +1498,10 @@
         <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -1520,10 +1509,10 @@
         <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1531,10 +1520,10 @@
         <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -1542,10 +1531,10 @@
         <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -1553,10 +1542,10 @@
         <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1564,10 +1553,10 @@
         <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1575,12 +1564,13 @@
         <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B26" numberStoredAsText="1"/>
   </ignoredErrors>
